--- a/biology/Biochimie/ADN_polymérase_êta/ADN_polymérase_êta.xlsx
+++ b/biology/Biochimie/ADN_polymérase_êta/ADN_polymérase_êta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADN_polym%C3%A9rase_%C3%AAta</t>
+          <t>ADN_polymérase_êta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN polymérase η, ou pol η, est une ADN polymérase présente chez les eucaryotes et qui intervient dans la réparation de l'ADN. Cette enzyme est particulièrement importante pour assurer la synthèse translésionnelle de l'ADN à la suite d'une exposition aux rayons ultraviolets. La déficience en pol η est responsable d'une maladie génétique rare, le xeroderma pigmentosum[2]. 
-On a pu montrer que la pol η interagit avec le PCNA[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN polymérase η, ou pol η, est une ADN polymérase présente chez les eucaryotes et qui intervient dans la réparation de l'ADN. Cette enzyme est particulièrement importante pour assurer la synthèse translésionnelle de l'ADN à la suite d'une exposition aux rayons ultraviolets. La déficience en pol η est responsable d'une maladie génétique rare, le xeroderma pigmentosum. 
+On a pu montrer que la pol η interagit avec le PCNA.
 </t>
         </is>
       </c>
